--- a/docs/Datos_Excel.xlsx
+++ b/docs/Datos_Excel.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -38,6 +38,12 @@
       <color theme="10"/>
       <sz val="11"/>
       <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -64,8 +70,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,47 +413,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E2:E5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="32.42578125" customWidth="1" min="2" max="2"/>
-    <col width="35.28515625" customWidth="1" min="3" max="3"/>
-    <col width="33.140625" customWidth="1" min="4" max="4"/>
+    <col width="21.5703125" customWidth="1" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" min="2" max="2"/>
+    <col width="13.7109375" customWidth="1" min="3" max="3"/>
+    <col width="47.42578125" customWidth="1" min="4" max="4"/>
     <col width="34.28515625" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Direccion</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Direccion</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Computer name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Introduced</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Discontuined</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Resultados</t>
         </is>
@@ -454,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>alexfabianmelo12@hotmail.com</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Calle 28 # 01 - 26 San Fernando</t>
+          <t>Test_Computer_1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>2015-05-20</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Calle 15 # 01 - 18 Santa Anita</t>
+          <t>Apple Inc.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -481,22 +490,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fabian</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>melo8121@gmail.com</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Calle 15 # 01 - 18 Santa Anita</t>
+          <t>Test_Computer_2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>2015-05-21</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Calle 28 # 01 - 26 San Fernando</t>
+          <t>Thinking Machines</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -508,22 +517,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Diego</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>diegovelandia@hotmail.com</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Calle 28 # 01 - 26 San Fernando</t>
+          <t>Test_Computer_3</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>2015-05-22</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-03</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Calle 15 # 01 - 18 Santa Anita</t>
+          <t>RCA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,22 +544,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alexander</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>divher566@gmail.com</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Calle 15 # 01 - 18 Santa Anita</t>
+          <t>Test_Computer_4</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>2015-05-23</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-04</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Calle 28 # 01 - 26 San Fernando</t>
+          <t>Netronics</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -559,13 +568,169 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Test_Computer_5</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>2015-05-24</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tandy Corporation</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Se insertó de forma satisfactoria</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Test_Computer_6</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>2015-05-25</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Commodore International</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Se insertó de forma satisfactoria</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Test_Computer_7</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>2015-05-26</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-07</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MOS Technology</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Se insertó de forma satisfactoria</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Test_Computer_8</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>2015-05-27</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Micro Instrumentation and Telemetry Systems</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Se insertó de forma satisfactoria</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Test_Computer_9</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>2015-05-28</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-09</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>IMS Associates, Inc.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Se insertó de forma satisfactoria</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Test_Computer_10</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>2015-05-29</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Digital Equipment Corporation</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Se insertó de forma satisfactoria</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
